--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>733306.3018768543</v>
+        <v>706869.7465669039</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5150740.814099779</v>
+        <v>5150740.81409978</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>205.5178444382804</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8.590354951141745</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>127.4978856749819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>21.16030022554286</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,19 +975,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.172609644471894</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>53.6747228092714</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>181.0201173812374</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>11.60615491399551</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,58 +1382,58 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>74.93556577626664</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.4360805987202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.82778746869523</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1607,26 +1607,26 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="I14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>182.8712838381066</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1853,52 +1853,52 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>86.18808978634208</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>7.952086412783581</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>26.20075604774391</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>108.4674532207121</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,67 +2318,67 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>79.41714906066386</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.6930783966232</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>25.68033330633776</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2716,70 +2716,70 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>92.95466700954542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>62.52515684565924</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2928,7 +2928,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>96.11446174710331</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>83.72646317855325</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,61 +3187,61 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3284,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,19 +3354,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>62.88143347497287</v>
+        <v>24.4750483535248</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3509,67 +3509,67 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>66.61229231154982</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>213.3278886065147</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>119.8469440170073</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>190.9826570342157</v>
       </c>
     </row>
     <row r="43">
@@ -3977,10 +3977,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D44" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>41.3997004011064</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>47.29627918133471</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
         <v>224.0352098159517</v>
@@ -4334,13 +4334,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.2856346470793</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>518.8326053659523</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>518.8326053659523</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4410,13 +4410,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W3" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="X3" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y3" t="n">
-        <v>693.2856346470793</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
         <v>133.2380658808762</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4577,7 +4577,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4586,31 +4586,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653.8560407330535</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>479.4030114519265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>330.4686017906753</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>171.2311467852198</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>24.69658881210475</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4650,19 +4650,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4671,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
         <v>133.2380658808762</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4805,19 +4805,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4829,22 +4829,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="U8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="V8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X8" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="W8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X8" t="n">
-        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
         <v>224.0352098159517</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>257.9494035700918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>257.9494035700918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>257.9494035700918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>119.2185781527073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,10 +4887,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
         <v>366.5706756325438</v>
@@ -4920,13 +4920,13 @@
         <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5042,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5063,28 +5063,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>451.3953532595989</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C12" t="n">
-        <v>451.3953532595989</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D12" t="n">
-        <v>302.4609435983476</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E12" t="n">
-        <v>302.4609435983476</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F12" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5127,10 +5127,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5148,22 +5148,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>746.378887070024</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>538.7851048091347</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>331.1913225482455</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>331.1913225482455</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>331.1913225482455</v>
       </c>
       <c r="Y12" t="n">
-        <v>619.6106902796669</v>
+        <v>331.1913225482455</v>
       </c>
     </row>
     <row r="13">
@@ -5194,10 +5194,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C14" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D14" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5291,37 +5291,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155.1722529724469</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C15" t="n">
-        <v>155.1722529724469</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D15" t="n">
-        <v>155.1722529724469</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E15" t="n">
-        <v>155.1722529724469</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5361,10 +5361,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
         <v>366.5706756325438</v>
@@ -5385,22 +5385,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>362.7660352333362</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>362.7660352333362</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V15" t="n">
-        <v>362.7660352333362</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W15" t="n">
-        <v>362.7660352333362</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X15" t="n">
-        <v>155.1722529724469</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y15" t="n">
-        <v>155.1722529724469</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>446.5882660539306</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C18" t="n">
-        <v>272.1352367728036</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D18" t="n">
-        <v>272.1352367728036</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E18" t="n">
-        <v>272.1352367728036</v>
+        <v>118.3673154238052</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>118.3673154238052</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>118.3673154238052</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,10 +5601,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5622,22 +5622,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>533.6469426057913</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>533.6469426057913</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>533.6469426057913</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y18" t="n">
-        <v>533.6469426057913</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="19">
@@ -5704,7 +5704,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>317.2494235330527</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C21" t="n">
-        <v>317.2494235330527</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5859,22 +5859,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>753.3245420021965</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>525.1009237385856</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>525.1009237385856</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>525.1009237385856</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>317.2494235330527</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>317.2494235330527</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5935,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.492073253973</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6096,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>345.004439675971</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>137.1529394704382</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6163,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>351.7470193540314</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>192.5095643485759</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>45.97500637546082</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6306,16 +6306,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>900.9004314241117</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6646,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>279.0604900729671</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="C33" t="n">
-        <v>104.6074607918401</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="D33" t="n">
-        <v>104.6074607918401</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="E33" t="n">
-        <v>104.6074607918401</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="F33" t="n">
-        <v>104.6074607918401</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>104.6074607918401</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>104.6074607918401</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,19 +6780,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6813,16 +6813,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y33" t="n">
-        <v>447.2758270930352</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6965,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="D36" t="n">
-        <v>640.669716568258</v>
+        <v>203.9950018326204</v>
       </c>
       <c r="E36" t="n">
-        <v>481.4322615628025</v>
+        <v>44.7575468271649</v>
       </c>
       <c r="F36" t="n">
-        <v>334.8977035896875</v>
+        <v>44.7575468271649</v>
       </c>
       <c r="G36" t="n">
-        <v>196.166878172303</v>
+        <v>44.7575468271649</v>
       </c>
       <c r="H36" t="n">
-        <v>82.7977425798823</v>
+        <v>44.7575468271649</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7050,16 +7050,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="37">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>179.2727307684539</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C39" t="n">
-        <v>179.2727307684539</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7281,22 +7281,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>622.1851377651506</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>622.1851377651506</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>387.0330295334078</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="W39" t="n">
-        <v>387.0330295334078</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="X39" t="n">
-        <v>387.0330295334078</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="Y39" t="n">
-        <v>179.2727307684539</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,13 +7418,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7454,7 +7454,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7491,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.6567645751305</v>
+        <v>629.1596029710855</v>
       </c>
     </row>
     <row r="43">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7731,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M45" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>626.8294255367553</v>
       </c>
-      <c r="O45" t="n">
-        <v>822.0713777531216</v>
-      </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>774.2973583780361</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>774.2973583780361</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>566.7035761171468</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>566.7035761171468</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>566.7035761171468</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>566.7035761171468</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7991,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8225,10 +8225,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8465,10 +8465,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N9" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8775,13 +8775,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8939,10 +8939,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9009,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,7 +10677,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,10 +11151,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,10 +11309,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11388,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,10 +22547,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>176.4125256339814</v>
@@ -22595,7 +22595,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,28 +22623,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>157.9428286987256</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>78.18481010232246</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22784,10 +22784,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,19 +22863,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>129.1709075187387</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22911,10 +22911,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>152.007972968033</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23069,13 +23069,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>42.07573218289394</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23103,7 +23103,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23112,16 +23112,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>100.629289322501</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23160,13 +23160,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,10 +23270,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23303,7 +23303,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,7 +23340,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,7 +23349,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,13 +23388,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>125.229162918555</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.246615178584165</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.6226874585631</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,7 +23552,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23586,7 +23586,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>17.29344485671506</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23625,7 +23625,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>17.29344485671501</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,10 +23634,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.34509386352526</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.2833578237129</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,19 +23862,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23944,10 +23944,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,16 +24023,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>146.5077429405718</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24057,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,10 +24099,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>91.69727547410946</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,10 +24206,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,22 +24251,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24303,10 +24303,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>9.979483790751217</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>88.98961738068117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,16 +24403,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>242.1111868917246</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,16 +24525,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>111.6631838568729</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,7 +24570,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,10 +24582,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>142.630753465213</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24680,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>313.921378732166</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24737,7 +24737,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9362516896722</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>109.1580142581786</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24816,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24886,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24983,7 +24983,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,16 +25005,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>48.95475064628057</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.670169672861832</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F35" t="n">
         <v>165.8617568640524</v>
@@ -25172,7 +25172,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25205,7 +25205,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,19 +25242,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>26.5151993764422</v>
+        <v>64.92158449789028</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25290,7 +25290,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25397,10 +25397,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,13 +25473,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,13 +25521,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>133.5524363832718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>19.47269854291054</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>185.6122135940581</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25713,13 +25713,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>51.83622708683056</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>14.70003874308864</v>
       </c>
     </row>
     <row r="43">
@@ -25865,10 +25865,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D44" t="n">
-        <v>195.6029128086028</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25962,10 +25962,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>47.99693245030868</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>124.3868919225031</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433935.5433801545</v>
+        <v>433935.5433801546</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433935.5433801545</v>
+        <v>433935.5433801546</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801545</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457060.9393513078</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>457060.9393513078</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801548</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26323,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596919</v>
+        <v>134093.9955596918</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26338,7 +26338,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="K2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="L2" t="n">
         <v>141236.5716516325</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6152.68987826378</v>
+        <v>3065.549959635784</v>
       </c>
       <c r="C6" t="n">
-        <v>75026.44645995364</v>
+        <v>71939.30654132564</v>
       </c>
       <c r="D6" t="n">
-        <v>75026.4464599537</v>
+        <v>71939.30654132566</v>
       </c>
       <c r="E6" t="n">
-        <v>108654.0464599536</v>
+        <v>105566.9065413256</v>
       </c>
       <c r="F6" t="n">
-        <v>108654.0464599536</v>
+        <v>105566.9065413256</v>
       </c>
       <c r="G6" t="n">
-        <v>103193.0087143263</v>
+        <v>99939.17027272294</v>
       </c>
       <c r="H6" t="n">
-        <v>112922.0516884934</v>
+        <v>109668.21324689</v>
       </c>
       <c r="I6" t="n">
-        <v>112922.0516884934</v>
+        <v>109668.21324689</v>
       </c>
       <c r="J6" t="n">
-        <v>59149.540798284</v>
+        <v>55895.70235668062</v>
       </c>
       <c r="K6" t="n">
-        <v>112922.0516884934</v>
+        <v>109668.2132468901</v>
       </c>
       <c r="L6" t="n">
-        <v>112922.0516884934</v>
+        <v>109668.21324689</v>
       </c>
       <c r="M6" t="n">
-        <v>112922.0516884934</v>
+        <v>109668.21324689</v>
       </c>
       <c r="N6" t="n">
-        <v>112922.0516884934</v>
+        <v>109668.21324689</v>
       </c>
       <c r="O6" t="n">
-        <v>108654.0464599537</v>
+        <v>105566.9065413257</v>
       </c>
       <c r="P6" t="n">
-        <v>108654.0464599537</v>
+        <v>105566.9065413257</v>
       </c>
     </row>
   </sheetData>
@@ -34702,7 +34702,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34711,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34945,10 +34945,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35185,10 +35185,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35495,13 +35495,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35659,10 +35659,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>148.1480627106907</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35969,13 +35969,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,7 +37397,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,10 +37871,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,10 +38029,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38108,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706869.7465669039</v>
+        <v>707653.8925049329</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5150740.81409978</v>
+        <v>5150740.814099779</v>
       </c>
     </row>
     <row r="11">
@@ -659,55 +661,55 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>181.0201173812374</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.590354951141745</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.436184442062472</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>181.0201173812374</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -975,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>53.6747228092714</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,67 +1135,67 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>181.0201173812374</v>
+        <v>113.510569923185</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,70 +1369,70 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
@@ -1449,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>110.722173798435</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1500,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>74.93556577626664</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="I14" t="n">
         <v>171.0294181666926</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>140.0737537369989</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>120.0500723064956</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1926,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>7.952086412783581</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2056,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>26.20075604774391</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2208,13 +2210,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>167.5873293802472</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2415,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>79.41714906066386</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,13 +2450,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2515,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>19.72793538656374</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.9327731506442769</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>63.14223173826446</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>241.0142888776591</v>
@@ -2798,67 +2800,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>62.52515684565924</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>8.085252827476559</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3108,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>96.11446174710331</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>12.20112622735861</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3286,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>24.4750483535248</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>68.38541766120755</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>83.23877906295974</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>213.3278886065147</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3825,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3876,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.9826570342157</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="W44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>41.3997004011064</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.311618392921636</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>131.2612545031018</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>131.2612545031018</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>131.2612545031018</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>441.0602509429012</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>233.4664686820119</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W3" t="n">
-        <v>25.87268642112264</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X3" t="n">
-        <v>25.87268642112264</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.87268642112264</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
         <v>199.2900309704538</v>
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4647,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4722,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>499.8204541556819</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>325.3674248745549</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4917,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W9" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="W9" t="n">
-        <v>406.8838132313431</v>
-      </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>499.8204541556819</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>499.8204541556819</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5051,7 +5053,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>670.6884303378189</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>463.0946480769296</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>463.0946480769296</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>162.9759855281775</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="C12" t="n">
-        <v>162.9759855281775</v>
+        <v>277.2164168106925</v>
       </c>
       <c r="D12" t="n">
-        <v>162.9759855281775</v>
+        <v>128.2820071494413</v>
       </c>
       <c r="E12" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5126,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>746.378887070024</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>538.7851048091347</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>331.1913225482455</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>331.1913225482455</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X12" t="n">
-        <v>331.1913225482455</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y12" t="n">
-        <v>331.1913225482455</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="13">
@@ -5261,7 +5263,7 @@
         <v>604.3859801240053</v>
       </c>
       <c r="E14" t="n">
-        <v>396.792197863116</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F14" t="n">
         <v>396.792197863116</v>
@@ -5270,7 +5272,7 @@
         <v>396.792197863116</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,16 +5281,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5331,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>137.7041268545529</v>
+        <v>647.6183484719946</v>
       </c>
       <c r="D15" t="n">
-        <v>137.7041268545529</v>
+        <v>647.6183484719946</v>
       </c>
       <c r="E15" t="n">
-        <v>137.7041268545529</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>137.7041268545529</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
         <v>366.5706756325438</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C18" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D18" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>118.3673154238052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>118.3673154238052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>118.3673154238052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5704,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>694.6722890434539</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C21" t="n">
-        <v>668.2068788942177</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5835,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>408.4264829152243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>259.492073253973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6165,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>133.5924738042943</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>133.5924738042943</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>133.5924738042943</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>20.22333821187361</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>83.81530782185143</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,22 +6484,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
@@ -6506,7 +6508,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>900.9004314241117</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>698.7138367828777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>470.4902185192667</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>470.4902185192667</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6648,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>459.5201808117111</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>459.5201808117111</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>459.5201808117111</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>459.5201808117111</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6786,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="W33" t="n">
-        <v>627.7355178317791</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X33" t="n">
-        <v>627.7355178317791</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y33" t="n">
-        <v>627.7355178317791</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>352.9294114938717</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D36" t="n">
-        <v>203.9950018326204</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E36" t="n">
-        <v>44.7575468271649</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F36" t="n">
-        <v>44.7575468271649</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>44.7575468271649</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>44.7575468271649</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7050,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>333.7844730889342</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>333.7844730889342</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>90.33569644483418</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>90.33569644483418</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U38" t="n">
-        <v>577.2332497330343</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V38" t="n">
-        <v>577.2332497330343</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>577.2332497330343</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>333.7844730889342</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>333.7844730889342</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>473.9875657500345</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C39" t="n">
-        <v>473.9875657500345</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>307.7836153093331</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7287,16 +7289,16 @@
         <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>473.9875657500345</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>473.9875657500345</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X39" t="n">
-        <v>473.9875657500345</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y39" t="n">
-        <v>473.9875657500345</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="40">
@@ -7360,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7454,7 +7456,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>460.9442659510175</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C42" t="n">
-        <v>460.9442659510175</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D42" t="n">
-        <v>460.9442659510175</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E42" t="n">
-        <v>301.706810945562</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7494,16 +7496,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>29.03990215807806</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7524,16 +7526,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y42" t="n">
-        <v>629.1596029710855</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7652,13 +7654,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7676,22 +7678,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>813.6758036188573</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>813.6758036188573</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>813.6758036188573</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
         <v>16.44142755506243</v>
@@ -7846,10 +7848,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8073,10 +8075,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
@@ -8304,7 +8306,7 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8699,10 +8701,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,7 +8774,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,10 +8783,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>290.7443071551351</v>
+        <v>269.7148239424616</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8939,7 +8941,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11300,7 +11302,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,7 +11311,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>184.2527743897701</v>
+        <v>346.0711816855324</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,7 +22609,7 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.9428286987256</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>143.6330279513214</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>173.6629242394455</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22863,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>110.3488012740662</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22911,10 +22913,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>152.007972968033</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23021,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23072,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
@@ -23100,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23121,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>24.75286782224003</v>
+        <v>92.26241528029252</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.5828422233929</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23303,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23315,10 +23317,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
@@ -23337,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>46.92290665696592</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23388,13 +23390,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>125.229162918555</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>168.4453839490745</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>39.44647140371328</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>17.57132671840205</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>17.29344485671506</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23814,10 +23816,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23826,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>104.2833578237129</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,7 +23867,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>146.5077429405718</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>58.35405270072761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24303,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>9.979483790751217</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,13 +24338,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>100.9443125299447</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24403,16 +24405,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>88.4638597007708</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>142.630753465213</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>124.2586028933485</v>
@@ -24686,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>109.1580142581786</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>197.6877323760009</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24888,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24996,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>48.95475064628057</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>213.7402558536162</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>165.8617568640524</v>
@@ -25172,7 +25174,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25205,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>64.92158449789028</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>336.5320379404362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25473,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>54.1047381002509</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>19.47269854291054</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>185.6122135940581</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>200.9102526910244</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25713,16 +25715,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>97.74851050512638</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25764,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.70003874308864</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,22 +25918,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="45">
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>47.99693245030868</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>91.8462157597215</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801545</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801545</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801548</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433935.5433801545</v>
+        <v>433935.5433801546</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.9393513078</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801545</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433935.5433801548</v>
+        <v>433935.5433801546</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="C2" t="n">
         <v>134093.9955596919</v>
@@ -26323,7 +26325,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3065.549959635784</v>
+        <v>3065.549959635864</v>
       </c>
       <c r="C6" t="n">
-        <v>71939.30654132564</v>
+        <v>71939.3065413257</v>
       </c>
       <c r="D6" t="n">
-        <v>71939.30654132566</v>
+        <v>71939.30654132567</v>
       </c>
       <c r="E6" t="n">
         <v>105566.9065413256</v>
       </c>
       <c r="F6" t="n">
-        <v>105566.9065413256</v>
+        <v>105566.9065413257</v>
       </c>
       <c r="G6" t="n">
         <v>99939.17027272294</v>
@@ -26543,7 +26545,7 @@
         <v>109668.21324689</v>
       </c>
       <c r="J6" t="n">
-        <v>55895.70235668062</v>
+        <v>55895.70235668057</v>
       </c>
       <c r="K6" t="n">
         <v>109668.2132468901</v>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34793,10 +34795,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
@@ -35024,7 +35026,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35419,10 +35421,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,10 +35503,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>148.1480627106907</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35659,7 +35661,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,7 +35974,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.8112771299739</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,7 +38031,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>707653.8925049329</v>
+        <v>603421.3942414896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V2" t="n">
         <v>205.5178444382804</v>
@@ -724,7 +724,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.436184442062472</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,70 +898,70 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
         <v>205.5178444382804</v>
@@ -1074,46 +1074,46 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>19.84004947482878</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>113.510569923185</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1372,11 +1372,11 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>142.7467091236887</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>110.722173798435</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>205.5178444382804</v>
@@ -1618,64 +1618,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>140.0737537369989</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>174.1446834303782</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>202.2946864288972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>29.79900896488263</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>54.23028573015831</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>134.667568689459</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>167.5873293802472</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,11 +2320,11 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2332,52 +2332,52 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>124.9970695510301</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2517,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>19.72793538656374</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9327731506442769</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2712,70 +2712,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>45.20332149747669</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>8.085252827476559</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>44.60315859947005</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>12.20112622735861</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>120.9298661881966</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>89.98138655216529</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.38541766120755</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>83.23877906295974</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>97.17639330140167</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="F41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>23.37503692583649</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.311618392921636</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
@@ -4146,58 +4146,58 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4339,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4354,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>255.5008658160403</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W2" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>131.2612545031018</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>131.2612545031018</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>131.2612545031018</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4415,46 +4415,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>415.1460457653264</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V3" t="n">
-        <v>513.308066045118</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
-        <v>513.308066045118</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
         <v>16.44142755506243</v>
@@ -4509,31 +4509,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4570,49 +4570,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4658,13 +4658,13 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4682,16 +4682,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4807,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4831,25 +4831,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X8" t="n">
         <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>499.8204541556819</v>
+        <v>36.481881570041</v>
       </c>
       <c r="C9" t="n">
-        <v>325.3674248745549</v>
+        <v>36.481881570041</v>
       </c>
       <c r="D9" t="n">
-        <v>176.4330152133036</v>
+        <v>36.481881570041</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4889,19 +4889,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X9" t="n">
-        <v>499.8204541556819</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y9" t="n">
-        <v>499.8204541556819</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5056,7 +5056,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5068,16 +5068,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
         <v>431.628992076841</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>451.6694460918196</v>
+        <v>576.7132532315743</v>
       </c>
       <c r="C12" t="n">
-        <v>277.2164168106925</v>
+        <v>576.7132532315743</v>
       </c>
       <c r="D12" t="n">
-        <v>128.2820071494413</v>
+        <v>427.7788435703231</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5123,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>626.8294255367553</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y12" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5226,25 +5226,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="C15" t="n">
-        <v>647.6183484719946</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D15" t="n">
-        <v>647.6183484719946</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,43 +5366,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>129.8105631474831</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5466,22 +5466,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E17" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F17" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.38115216564972</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="C18" t="n">
-        <v>49.38115216564972</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>164.3588386471556</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>164.3588386471556</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y18" t="n">
-        <v>49.38115216564972</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="19">
@@ -5712,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.0035561858384</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0035561858384</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D21" t="n">
-        <v>318.0035561858384</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G21" t="n">
         <v>20.03527576299844</v>
@@ -5840,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N21" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N21" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>318.0035561858384</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>318.0035561858384</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>318.0035561858384</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>318.0035561858384</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y21" t="n">
-        <v>318.0035561858384</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="22">
@@ -5937,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U24" t="n">
-        <v>462.1935501069094</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V24" t="n">
-        <v>227.0414418751666</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0414418751666</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6165,13 +6165,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>944.1299480494607</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V26" t="n">
-        <v>475.3318284112885</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>292.8299288097498</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>133.5924738042943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>133.5924738042943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>133.5924738042943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.22333821187361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.8299288097498</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>249.0657303232264</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="C30" t="n">
-        <v>249.0657303232264</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="D30" t="n">
-        <v>249.0657303232264</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="E30" t="n">
-        <v>249.0657303232264</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="F30" t="n">
-        <v>249.0657303232264</v>
+        <v>203.6718892321191</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>64.94106381473463</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>64.94106381473463</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,13 +6554,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X30" t="n">
-        <v>249.0657303232264</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y30" t="n">
-        <v>249.0657303232264</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6648,25 +6648,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6739,13 +6739,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>210.869396638348</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>210.869396638348</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>210.869396638348</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>64.33483866523298</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>64.33483866523298</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>64.33483866523298</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>778.3154410346802</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>778.3154410346802</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W33" t="n">
-        <v>778.3154410346802</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X33" t="n">
-        <v>570.4639408291474</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y33" t="n">
-        <v>362.7036420641935</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="D36" t="n">
-        <v>667.4527462414319</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="E36" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>284.6244618379714</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>454.3181732824481</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C39" t="n">
-        <v>454.3181732824481</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="D39" t="n">
-        <v>454.3181732824481</v>
+        <v>403.4586321852169</v>
       </c>
       <c r="E39" t="n">
-        <v>454.3181732824481</v>
+        <v>403.4586321852169</v>
       </c>
       <c r="F39" t="n">
-        <v>307.7836153093331</v>
+        <v>256.9240742121018</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>118.1932487947173</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7259,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>454.3181732824481</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>454.3181732824481</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7414,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.07469395038575</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C42" t="n">
-        <v>31.07469395038575</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D42" t="n">
-        <v>31.07469395038575</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7496,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M42" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N42" t="n">
-        <v>618.608711759224</v>
-      </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7523,7 +7523,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
         <v>614.4775954922324</v>
@@ -7532,7 +7532,7 @@
         <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
         <v>199.2900309704538</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
         <v>16.44142755506243</v>
@@ -7590,31 +7590,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7651,19 +7651,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7675,25 +7675,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7730,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>813.6758036188573</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>813.6758036188573</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>813.6758036188573</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>606.0820213579681</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>606.0820213579681</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>606.0820213579681</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>398.4882390970787</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
         <v>16.44142755506243</v>
@@ -7845,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8230,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8306,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>279.489774794024</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8467,7 +8467,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8780,16 +8780,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O12" t="n">
-        <v>269.7148239424616</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8941,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>360.3696370111358</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,19 +9014,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>292.5201795090609</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>360.3696370111358</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>346.0711816855324</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V2" t="n">
         <v>122.2344140318545</v>
@@ -22612,7 +22612,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,13 +22637,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>143.6330279513214</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22688,13 +22688,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22749,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>110.3488012740662</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22922,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X6" t="n">
         <v>0.2551407651970692</v>
@@ -22962,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23071,10 +23071,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>137.8050309805722</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>92.26241528029252</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23308,19 +23308,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>23.78647452617867</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>46.92290665696592</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>159.7550473327271</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>39.44647140371328</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>17.57132671840205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>77.55029973054141</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9120779467107</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>8.181203141508689</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23816,13 +23816,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>117.6460565997561</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>90.83892666322556</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.675948473751646</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>58.35405270072761</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>138.6760617849701</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>107.2991603648583</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>100.9443125299447</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24405,16 +24405,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24490,22 +24490,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>189.2921341996816</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>268.906261701593</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,13 +24524,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,10 +24539,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>88.4638597007708</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>133.3314980030232</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979771</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>44.19331135393839</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>197.6877323760009</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4932414420988</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>44.79347425194503</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>213.7402558536162</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>273.9090123488199</v>
       </c>
     </row>
     <row r="36">
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>26.5151993764422</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>67.66369390323565</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>140.6346519250378</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>54.1047381002509</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>15.05905093509479</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25529,10 +25529,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25633,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>200.9102526910244</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>124.0700286388023</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25724,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>97.74851050512638</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25915,25 +25915,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>91.8462157597215</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26006,7 +26006,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433935.5433801545</v>
+        <v>433935.5433801546</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433935.5433801548</v>
+        <v>433935.5433801545</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801545</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801545</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457060.9393513078</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433935.5433801545</v>
+        <v>433935.5433801546</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433935.5433801546</v>
+        <v>433935.5433801547</v>
       </c>
     </row>
   </sheetData>
@@ -26340,7 +26340,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="K2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="L2" t="n">
         <v>141236.5716516325</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3065.549959635864</v>
+        <v>-9572.612195224698</v>
       </c>
       <c r="C6" t="n">
-        <v>71939.3065413257</v>
+        <v>59301.14438646517</v>
       </c>
       <c r="D6" t="n">
-        <v>71939.30654132567</v>
+        <v>59301.1443864652</v>
       </c>
       <c r="E6" t="n">
-        <v>105566.9065413256</v>
+        <v>92928.7443864652</v>
       </c>
       <c r="F6" t="n">
-        <v>105566.9065413257</v>
+        <v>92928.7443864652</v>
       </c>
       <c r="G6" t="n">
-        <v>99939.17027272294</v>
+        <v>87721.15965268243</v>
       </c>
       <c r="H6" t="n">
-        <v>109668.21324689</v>
+        <v>97450.20262684954</v>
       </c>
       <c r="I6" t="n">
-        <v>109668.21324689</v>
+        <v>97450.20262684958</v>
       </c>
       <c r="J6" t="n">
-        <v>55895.70235668057</v>
+        <v>43677.69173664008</v>
       </c>
       <c r="K6" t="n">
-        <v>109668.2132468901</v>
+        <v>97450.20262684957</v>
       </c>
       <c r="L6" t="n">
-        <v>109668.21324689</v>
+        <v>97450.20262684957</v>
       </c>
       <c r="M6" t="n">
-        <v>109668.21324689</v>
+        <v>97450.20262684954</v>
       </c>
       <c r="N6" t="n">
-        <v>109668.21324689</v>
+        <v>97450.20262684957</v>
       </c>
       <c r="O6" t="n">
-        <v>105566.9065413257</v>
+        <v>92928.7443864652</v>
       </c>
       <c r="P6" t="n">
-        <v>105566.9065413257</v>
+        <v>92928.74438646517</v>
       </c>
     </row>
   </sheetData>
@@ -34707,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34950,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>148.1480627106907</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35187,7 +35187,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35500,16 +35500,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
+        <v>70.5902951096252</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O12" t="n">
-        <v>127.1185794980172</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35661,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>130.2714255894491</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>99.81127712997396</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>161.1784674257276</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37794,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38031,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>130.2714255894491</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O45" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
